--- a/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
+++ b/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
@@ -212,7 +212,7 @@
     <t>referenceCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/reference-code}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reference-code}
 </t>
   </si>
   <si>
@@ -228,7 +228,7 @@
     <t>referencePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/reference-period}
+    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reference-period}
 </t>
   </si>
   <si>

--- a/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
+++ b/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
@@ -212,14 +212,11 @@
     <t>referenceCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reference-code}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/reference-code}
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>A code describing the context of the reference</t>
   </si>
   <si>
     <t>N/A</t>
@@ -228,8 +225,11 @@
     <t>referencePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://alvearie.io/fhir/StructureDefinition/reference-period}
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/reference-period}
 </t>
+  </si>
+  <si>
+    <t>A time period in which the reference is valid</t>
   </si>
   <si>
     <t>Reference.reference</t>
@@ -953,7 +953,7 @@
         <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1019,7 +1019,7 @@
         <v>61</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1027,7 +1027,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
@@ -1049,13 +1049,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>64</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1223,7 +1223,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" hidden="true">
@@ -1325,7 +1325,7 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -1529,7 +1529,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
+++ b/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
@@ -470,42 +470,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.0859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.97265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="49.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="48.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.73828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.69921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="68.1015625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="67.484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
+++ b/docs/0.1.0/StructureDefinition-reference-with-code-and-period.xlsx
@@ -470,42 +470,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.97265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.16796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="48.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.69921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="70.296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
